--- a/tests/data/anp_data_cluster_cmps.xlsx
+++ b/tests/data/anp_data_cluster_cmps.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="287">
   <si>
     <t xml:space="preserve">Cluster 1</t>
   </si>
@@ -860,6 +860,18 @@
   </si>
   <si>
     <t xml:space="preserve">Cluster 3 vs Cluster 4 wrt Cluster 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluster 1 wrt Cluster 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluster 2 wrt Cluster 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluster 3 wrt Cluster 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluster 4 wrt Cluster 2</t>
   </si>
   <si>
     <t xml:space="preserve">Cluster 4 wrt n4-4</t>
@@ -1798,10 +1810,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C257"/>
+  <dimension ref="A1:C261"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A242" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C242" activeCellId="0" sqref="C242"/>
+      <selection pane="topLeft" activeCell="C261" activeCellId="0" sqref="C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5124,6 +5136,50 @@
       </c>
       <c r="C257" s="0" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5156,22 +5212,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
